--- a/TestInput/InputSheet.xlsx
+++ b/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -361,10 +361,7 @@
     <t>Asus Zenfone ZYX</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Saurabh235ab</t>
+    <t>Saurabh235abcdef</t>
   </si>
 </sst>
 </file>
@@ -771,7 +768,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -828,7 +825,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -1120,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1326,7 +1323,9 @@
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -1876,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
